--- a/appendix/mean_difference_recall_macro_rest.xlsx
+++ b/appendix/mean_difference_recall_macro_rest.xlsx
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings vs. classical-best-tfidf</t>
+          <t>classical-best-embed vs. classical-best-tfidf</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09</v>
+        <v>0.096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E2" t="n">
         <v>0.08400000000000001</v>
@@ -513,10 +513,10 @@
         <v>0.115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.081</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151</v>
+        <v>0.164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.189</v>
+        <v>0.17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.193</v>
+        <v>0.186</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
+          <t>BERT-base vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -566,25 +566,25 @@
         <v>-0.005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.105</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
       <c r="G4" t="n">
-        <v>0.122</v>
+        <v>0.115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.105</v>
+        <v>0.102</v>
       </c>
       <c r="I4" t="n">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="5">
@@ -594,65 +594,65 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.374</v>
+        <v>0.359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.262</v>
+        <v>0.284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265</v>
+        <v>0.248</v>
       </c>
       <c r="E5" t="n">
-        <v>0.276</v>
+        <v>0.247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.239</v>
+        <v>0.236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.232</v>
+        <v>0.225</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.26</v>
+        <v>0.254</v>
       </c>
       <c r="J5" t="n">
-        <v>0.254</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
+          <t>BERT-base-nli vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.374</v>
+        <v>0.359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.172</v>
+        <v>0.188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215</v>
+        <v>0.188</v>
       </c>
       <c r="E6" t="n">
-        <v>0.192</v>
+        <v>0.163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.161</v>
+        <v>0.154</v>
       </c>
       <c r="H6" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.186</v>
+        <v>0.175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.173</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.374</v>
+        <v>0.359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177</v>
+        <v>0.193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="F7" t="n">
         <v>0.066</v>
@@ -683,10 +683,10 @@
         <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
     </row>
   </sheetData>
